--- a/PEP/data.xlsx
+++ b/PEP/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dissertation\PEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Dissertation\PEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>Activities</t>
   </si>
@@ -495,6 +495,18 @@
   </si>
   <si>
     <t>Quality inspection final changes  (Phase 3, Activity H)</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>Reporting</t>
   </si>
 </sst>
 </file>
@@ -609,7 +621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -645,11 +657,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -700,6 +736,27 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -712,39 +769,44 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="5" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1091,30 +1153,30 @@
       <c r="G4" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="12" t="s">
         <v>9</v>
       </c>
@@ -1389,10 +1451,10 @@
       <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1407,10 +1469,10 @@
       <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1425,10 +1487,10 @@
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1488,20 +1550,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:N23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="102.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" customWidth="1"/>
     <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
@@ -1554,64 +1616,64 @@
       <c r="G4" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="29" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="29" t="s">
+      <c r="M8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="29" t="s">
+      <c r="N8" s="21" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1619,293 +1681,293 @@
       <c r="A9" s="19">
         <v>1</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
     </row>
     <row r="10" spans="1:14" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>2</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
     </row>
     <row r="11" spans="1:14" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>3</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
     </row>
     <row r="12" spans="1:14" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>4</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
     </row>
     <row r="13" spans="1:14" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>5</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
     </row>
     <row r="14" spans="1:14" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>6</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
     </row>
     <row r="15" spans="1:14" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>7</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
     </row>
     <row r="16" spans="1:14" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>8</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-    </row>
-    <row r="17" spans="1:14" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+    </row>
+    <row r="17" spans="1:15" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>9</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-    </row>
-    <row r="18" spans="1:14" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+    </row>
+    <row r="18" spans="1:15" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>10</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="31"/>
-    </row>
-    <row r="19" spans="1:14" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
+    </row>
+    <row r="19" spans="1:15" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>11</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-    </row>
-    <row r="20" spans="1:14" s="9" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+    </row>
+    <row r="20" spans="1:15" s="9" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-    </row>
-    <row r="21" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+    </row>
+    <row r="21" spans="1:15" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-    </row>
-    <row r="22" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+    </row>
+    <row r="22" spans="1:15" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-    </row>
-    <row r="23" spans="1:14" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="B22" s="34"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+    </row>
+    <row r="23" spans="1:15" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-    </row>
-    <row r="24" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="31"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+    </row>
+    <row r="24" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -1920,7 +1982,7 @@
       <c r="M24"/>
       <c r="N24"/>
     </row>
-    <row r="25" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -1935,8 +1997,140 @@
       <c r="M25"/>
       <c r="N25"/>
     </row>
+    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="39"/>
+    </row>
+    <row r="28" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="39"/>
+    </row>
+    <row r="29" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="39"/>
+    </row>
+    <row r="30" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="39"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="39"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
